--- a/sinkhole_data/구별/사하구.xlsx
+++ b/sinkhole_data/구별/사하구.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogs0\OneDrive\바탕 화면\2025 전국대학생 CM•시공 경진대회\싱크홀 데이터\구별\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76C5BFC-1A49-4A0A-AEDE-66BA2B625A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87C3D54-71D6-4B65-A913-F9042D4DE8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,15 +23,15 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>location</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>reason</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>width</t>
@@ -44,7 +44,7 @@
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>부산광역시 사하구 하단오거리 교차로(하단1동)</t>
@@ -161,13 +161,6 @@
     <t>흙 다지기 및 되메우기 재시공 및 포장 복구 완료</t>
   </si>
   <si>
-    <t>부산광역시 사하구 괴정동 도로</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>지자체, 상수도본부 굴착작업 통해 원인 조사 중</t>
-  </si>
-  <si>
     <t>lon</t>
   </si>
   <si>
@@ -175,28 +168,215 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사하구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>괴정동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도로</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지자체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상수도본부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>굴착작업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,33 +407,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Noto Sans KR"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Noto Sans KR"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -284,7 +447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -308,24 +471,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF333333"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FFDDDDDD"/>
       </right>
@@ -341,34 +487,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,551 +825,551 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:I18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="3.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>43167</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3">
-        <v>43167</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="I2" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>43187</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>43194</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="2">
+        <v>43282</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="2">
+        <v>43412</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="10">
+        <v>128.98142162587899</v>
+      </c>
+      <c r="I6" s="10">
+        <v>35.076129466617303</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="2">
+        <v>43545</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="10">
+        <v>128.976993741553</v>
+      </c>
+      <c r="I7" s="10">
+        <v>35.078436702179502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="2">
+        <v>43596</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="10">
+        <v>128.96270371628</v>
+      </c>
+      <c r="I8" s="10">
+        <v>35.094665018049398</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="2">
+        <v>43903</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="10">
+        <v>128.97725374706499</v>
+      </c>
+      <c r="I9" s="10">
+        <v>35.0978350143249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="2">
+        <v>44270</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="10">
+        <v>128.97417088856801</v>
+      </c>
+      <c r="I10" s="10">
+        <v>35.060918514508799</v>
+      </c>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="2">
+        <v>44308</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="10">
+        <v>129.00367069354999</v>
+      </c>
+      <c r="I11" s="10">
+        <v>35.105529812190802</v>
+      </c>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="10">
+        <v>128.969417718008</v>
+      </c>
+      <c r="I12" s="10">
+        <v>35.0560482629961</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="2">
+        <v>44432</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="10">
+        <v>128.974733550774</v>
+      </c>
+      <c r="I13" s="10">
+        <v>35.086088579370298</v>
+      </c>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>44746</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="10">
+        <v>129.00285686064399</v>
+      </c>
+      <c r="I14" s="10">
+        <v>35.088402804452997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="2">
+        <v>44832</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="3">
-        <v>43187</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="3">
-        <v>43194</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="3">
-        <v>43282</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="3">
-        <v>43412</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="9">
-        <v>128.98142162587899</v>
-      </c>
-      <c r="I6" s="9">
-        <v>35.076129466617303</v>
-      </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="3">
-        <v>43545</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="9">
-        <v>128.976993741553</v>
-      </c>
-      <c r="I7" s="9">
-        <v>35.078436702179502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="3">
-        <v>43596</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="9">
-        <v>128.96270371628</v>
-      </c>
-      <c r="I8" s="9">
-        <v>35.094665018049398</v>
-      </c>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="3">
-        <v>43903</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D15" s="3">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="10">
+        <v>128.999756527004</v>
+      </c>
+      <c r="I15" s="10">
+        <v>35.103765068493402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="9">
-        <v>128.97725374706499</v>
-      </c>
-      <c r="I9" s="9">
-        <v>35.0978350143249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="3">
-        <v>44270</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D16" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="10">
+        <v>128.953114211219</v>
+      </c>
+      <c r="I16" s="10">
+        <v>35.077850487442397</v>
+      </c>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="3">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="F17" s="3">
         <v>0.7</v>
       </c>
-      <c r="F10" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="9">
-        <v>128.97417088856801</v>
-      </c>
-      <c r="I10" s="9">
-        <v>35.060918514508799</v>
-      </c>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="3">
-        <v>44308</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2</v>
-      </c>
-      <c r="E11" s="4">
-        <v>4</v>
-      </c>
-      <c r="F11" s="4">
-        <v>5</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="9">
-        <v>129.00367069354999</v>
-      </c>
-      <c r="I11" s="9">
-        <v>35.105529812190802</v>
-      </c>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="3">
-        <v>44364</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="9">
-        <v>128.969417718008</v>
-      </c>
-      <c r="I12" s="9">
-        <v>35.0560482629961</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="3">
-        <v>44432</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4">
-        <v>3</v>
-      </c>
-      <c r="E13" s="4">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4">
-        <v>5</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="9">
-        <v>128.974733550774</v>
-      </c>
-      <c r="I13" s="9">
-        <v>35.086088579370298</v>
-      </c>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="3">
-        <v>44746</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="9">
-        <v>129.00285686064399</v>
-      </c>
-      <c r="I14" s="9">
-        <v>35.088402804452997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="3">
-        <v>44832</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4">
-        <v>4</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
-        <v>2</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="9">
-        <v>128.999756527004</v>
-      </c>
-      <c r="I15" s="9">
-        <v>35.103765068493402</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="3">
-        <v>45027</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="9">
-        <v>128.953114211219</v>
-      </c>
-      <c r="I16" s="9">
-        <v>35.077850487442397</v>
-      </c>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="3">
-        <v>45407</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="4">
-        <v>6</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="10">
         <v>129.002449095717</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="10">
         <v>35.105351744069097</v>
       </c>
-      <c r="J17" s="9"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>45749</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
         <v>0.5</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>0.5</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18">
+        <v>49</v>
+      </c>
+      <c r="H18" s="9">
         <v>128.993869901652</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="9">
         <v>35.1006989126845</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>